--- a/public/1BRILLIANCE-5.xlsx
+++ b/public/1BRILLIANCE-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\project\vue-excel-process-system\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4BE966-70C8-4741-B660-73AA1952E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DA9154-EEB9-42DC-9DF9-FC42CEF81570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39645" yWindow="1260" windowWidth="20520" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -39,34 +39,16 @@
     <t>ceshi1vf</t>
   </si>
   <si>
-    <t>ceshi1de</t>
-  </si>
-  <si>
-    <t>ceshi1aa</t>
-  </si>
-  <si>
     <t>ceshi1as</t>
   </si>
   <si>
     <t>ceshi1zx</t>
   </si>
   <si>
-    <t>ceshi1zas</t>
-  </si>
-  <si>
-    <t>ceshi1zd</t>
-  </si>
-  <si>
     <t>1ceshi1</t>
   </si>
   <si>
     <t>2ceshi1</t>
-  </si>
-  <si>
-    <t>3ceshi1</t>
-  </si>
-  <si>
-    <t>4ceshi1</t>
   </si>
 </sst>
 </file>
@@ -418,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -439,10 +421,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -450,46 +432,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
